--- a/file_log.xlsx
+++ b/file_log.xlsx
@@ -11,8 +11,10 @@
     <sheet name="file details" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="configuration log" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="file_header_columns" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="joined_output" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="data_model" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Bridge_Key" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Transactions_linked" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sales_linked" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="joined_output" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +23,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -476,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,17 +492,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11:59:21</t>
+          <t>11:28:29</t>
         </is>
       </c>
     </row>
@@ -562,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -577,17 +583,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:59:21</t>
+          <t>11:28:29</t>
         </is>
       </c>
     </row>
@@ -597,7 +603,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -607,22 +613,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Transactions</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:59:21</t>
+          <t>11:28:29</t>
         </is>
       </c>
     </row>
@@ -673,17 +679,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Sales</t>
         </is>
       </c>
     </row>
@@ -693,17 +699,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Transactions</t>
         </is>
       </c>
     </row>
@@ -718,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,27 +770,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Sale_ID</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Country_Country</t>
+          <t>Sales_Sale_ID</t>
         </is>
       </c>
     </row>
@@ -794,27 +800,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Continent</t>
+          <t>Customer_ID</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Country_Continent</t>
+          <t>Sales_Customer_ID</t>
         </is>
       </c>
     </row>
@@ -824,27 +830,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Product_ID</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Country_Population</t>
+          <t>Sales_Product_ID</t>
         </is>
       </c>
     </row>
@@ -854,27 +860,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Currency</t>
+          <t>Sale_Date</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Country_Currency</t>
+          <t>Sales_Sale_Date</t>
         </is>
       </c>
     </row>
@@ -884,12 +890,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -899,12 +905,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Total_Amount</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sales_Country</t>
+          <t>Sales_Total_Amount</t>
         </is>
       </c>
     </row>
@@ -914,27 +920,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Transactions</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Transaction_ID</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sales_Product</t>
+          <t>Transactions_Transaction_ID</t>
         </is>
       </c>
     </row>
@@ -944,27 +950,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Transactions</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Sale_ID</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sales_Sales</t>
+          <t>Transactions_Sale_ID</t>
         </is>
       </c>
     </row>
@@ -974,27 +980,87 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>uploaded_files/20251105115921_combined_data.xlsx</t>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>combined_data.xlsx</t>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Transactions</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Payment_Mode</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sales_Quantity</t>
+          <t>Transactions_Payment_Mode</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Transactions</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Transaction_Date</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Transactions_Transaction_Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>uploaded_files/20251111112829_Sales_Transactions_ManyToMany_1.xlsx</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sales_Transactions_ManyToMany_1.xlsx</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Transactions</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Transaction_Amount</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transactions_Transaction_Amount</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,212 +1086,672 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Continent</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Population</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
+          <t>Sale_ID</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>331000000</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
+          <t>93</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1380000000</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>800</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1380000000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+          <t>82</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67800000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
+          <t>66</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>83000000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>950</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
+          <t>54</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>125000000</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JPY</t>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,24 +1775,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>S.No</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Sheet1_Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sheet2_Column</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Join_Type</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sale_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Payment_Mode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction_Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction_Amount</t>
         </is>
       </c>
     </row>
@@ -1276,18 +1807,7017 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Country_Country</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sales_Country</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Left Join</t>
-        </is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="E2" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="E4" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E21" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="E26" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="E29" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="E30" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="E31" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="E34" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="E37" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="E38" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="E41" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="E58" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="E59" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="E62" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="E63" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="E68" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="E72" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="E86" t="n">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sale_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Customer_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Product_ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sale_Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="E6" t="n">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="E11" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>33</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="E27" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>44</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="E31" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>27</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>42</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="E37" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>44</v>
+      </c>
+      <c r="C38" t="n">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>37</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="E41" t="n">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>21</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>39</v>
+      </c>
+      <c r="C44" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="E45" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>25</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="E48" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>50</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>14</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>26</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>28</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>47</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="E55" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>44</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>47</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="E59" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>35</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>14</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>36</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>50</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="E64" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>40</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>42</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" t="n">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>29</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>18</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>26</v>
+      </c>
+      <c r="C73" t="n">
+        <v>29</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="E73" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>44</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="E74" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>34</v>
+      </c>
+      <c r="C75" t="n">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>36</v>
+      </c>
+      <c r="C77" t="n">
+        <v>27</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C78" t="n">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>31</v>
+      </c>
+      <c r="C79" t="n">
+        <v>22</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>48</v>
+      </c>
+      <c r="C80" t="n">
+        <v>28</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>15</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>14</v>
+      </c>
+      <c r="C83" t="n">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>23</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>40</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>21</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>16</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>45</v>
+      </c>
+      <c r="C88" t="n">
+        <v>28</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>18</v>
+      </c>
+      <c r="C89" t="n">
+        <v>28</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>47</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>24</v>
+      </c>
+      <c r="C91" t="n">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>26</v>
+      </c>
+      <c r="C92" t="n">
+        <v>20</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>25</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>45</v>
+      </c>
+      <c r="C94" t="n">
+        <v>30</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>41</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>29</v>
+      </c>
+      <c r="C96" t="n">
+        <v>26</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>15</v>
+      </c>
+      <c r="C97" t="n">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="E97" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>45</v>
+      </c>
+      <c r="C98" t="n">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>25</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="E100" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>30</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sale_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction_Amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Payment_Mode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction_Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Customer_ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Product_ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Amount</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sale_Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1406</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>763</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2788</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2300</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2098</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3545</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3843</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4430</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3404</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3863</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>160</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8903</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1953</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8137</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4759</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1391</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4896</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4129</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="F15" t="n">
+        <v>44</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3681</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2956</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="F16" t="n">
+        <v>91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12188</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3119</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2206</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>468</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14069</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="F19" t="n">
+        <v>33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3252</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>798</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>153</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6821</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2260</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>44</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4197</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4837</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2775</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>118</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5061</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="F25" t="n">
+        <v>49</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>954</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3574</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>150</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8028</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1807</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>207</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11055</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2877</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>16</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1833</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45325</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>53</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5417</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3610</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>47</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>302</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>177</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6735</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="F32" t="n">
+        <v>44</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3355</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>29</v>
+      </c>
+      <c r="C33" t="n">
+        <v>164</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4318</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>94</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3043</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="F34" t="n">
+        <v>37</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4596</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>46</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4129</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="F35" t="n">
+        <v>43</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1382</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>866</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4050</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="F37" t="n">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4489</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>96</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1267</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2427</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>92</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1592</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="F39" t="n">
+        <v>39</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3031</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>51</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3901</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="F40" t="n">
+        <v>18</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>297</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2030</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>195</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4824</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="F42" t="n">
+        <v>25</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3682</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>82</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3344</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14</v>
+      </c>
+      <c r="G43" t="n">
+        <v>26</v>
+      </c>
+      <c r="H43" t="n">
+        <v>708</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>176</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11180</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="n">
+        <v>23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3372</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1737</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1247</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>809</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>26</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4382</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>30</v>
+      </c>
+      <c r="C48" t="n">
+        <v>666</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>27</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3497</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>20</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2611</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>62</v>
+      </c>
+      <c r="C50" t="n">
+        <v>445</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1894</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>112</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9277</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="F51" t="n">
+        <v>47</v>
+      </c>
+      <c r="G51" t="n">
+        <v>15</v>
+      </c>
+      <c r="H51" t="n">
+        <v>759</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="n">
+        <v>26</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2911</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>44</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1469</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>28</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2086</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>77</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1217</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F55" t="n">
+        <v>47</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13</v>
+      </c>
+      <c r="H55" t="n">
+        <v>246</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C56" t="n">
+        <v>825</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="F56" t="n">
+        <v>35</v>
+      </c>
+      <c r="G56" t="n">
+        <v>19</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3319</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4002</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="F57" t="n">
+        <v>21</v>
+      </c>
+      <c r="G57" t="n">
+        <v>24</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4844</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>14</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3011</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>51</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4635</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17</v>
+      </c>
+      <c r="G59" t="n">
+        <v>17</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1834</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>36</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1943</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>67</v>
+      </c>
+      <c r="C61" t="n">
+        <v>767</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="F61" t="n">
+        <v>50</v>
+      </c>
+      <c r="G61" t="n">
+        <v>29</v>
+      </c>
+      <c r="H61" t="n">
+        <v>588</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>88</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2918</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3076</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>30</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2059</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>89</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2519</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2485</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>170</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6659</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" t="n">
+        <v>23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3019</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3963</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="F66" t="n">
+        <v>42</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4836</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>42</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>13</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1902</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45360</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>19</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2596</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F68" t="n">
+        <v>39</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4513</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>29</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4161</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>18</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3469</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>26</v>
+      </c>
+      <c r="G71" t="n">
+        <v>29</v>
+      </c>
+      <c r="H71" t="n">
+        <v>362</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>44</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>723</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>34</v>
+      </c>
+      <c r="G73" t="n">
+        <v>13</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1116</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3743</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>191</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10220</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="F75" t="n">
+        <v>36</v>
+      </c>
+      <c r="G75" t="n">
+        <v>27</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2149</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>14</v>
+      </c>
+      <c r="G76" t="n">
+        <v>19</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3823</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>31</v>
+      </c>
+      <c r="G77" t="n">
+        <v>22</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4648</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>48</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3208</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>50</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7336</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="F79" t="n">
+        <v>19</v>
+      </c>
+      <c r="G79" t="n">
+        <v>19</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3848</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Net Banking</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4190</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2156</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>901</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F82" t="n">
+        <v>37</v>
+      </c>
+      <c r="G82" t="n">
+        <v>43</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5052</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>40</v>
+      </c>
+      <c r="G83" t="n">
+        <v>25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2355</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>68</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="F84" t="n">
+        <v>21</v>
+      </c>
+      <c r="G84" t="n">
+        <v>21</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1254</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>26</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="F85" t="n">
+        <v>16</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4599</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>70</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3627</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="F86" t="n">
+        <v>110</v>
+      </c>
+      <c r="G86" t="n">
+        <v>68</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9178</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>91</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3351</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="F87" t="n">
+        <v>23</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4879</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>88</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="F88" t="n">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n">
+        <v>12</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4823</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>26</v>
+      </c>
+      <c r="G89" t="n">
+        <v>20</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4782</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>52</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3490</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="F90" t="n">
+        <v>25</v>
+      </c>
+      <c r="G90" t="n">
+        <v>30</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1748</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>150</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6052</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F91" t="n">
+        <v>45</v>
+      </c>
+      <c r="G91" t="n">
+        <v>30</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1545</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>41</v>
+      </c>
+      <c r="G92" t="n">
+        <v>11</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4299</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>138</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7907</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="F93" t="n">
+        <v>29</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4023</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>79</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6913</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>35</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3196</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="F95" t="n">
+        <v>61</v>
+      </c>
+      <c r="G95" t="n">
+        <v>76</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6293</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>252</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9476</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Debit Card</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>198</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>45390</v>
       </c>
     </row>
   </sheetData>
